--- a/1 - FORMULAS AND FUNCTIONS/Excel Homework Workbooks/Excel_Homework_Exercises_ANSWERS.xlsx
+++ b/1 - FORMULAS AND FUNCTIONS/Excel Homework Workbooks/Excel_Homework_Exercises_ANSWERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Documents\GitHub\Learning-Excel\1 - FORMULAS AND FUNCTIONS\Excel Homework Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFE2629-57AD-4442-BCBC-C6AB19265F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA82115-3272-4376-88F9-4A0B9E01E219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12510" yWindow="0" windowWidth="12780" windowHeight="16170" tabRatio="709" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -5457,7 +5457,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6058,7 +6058,9 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6095,7 +6097,7 @@
       </c>
       <c r="C4" s="39">
         <f ca="1">NOW()</f>
-        <v>45147.612334143516</v>
+        <v>45147.895887268518</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6133,15 +6135,15 @@
       </c>
       <c r="E7" s="40">
         <f ca="1">HOUR(C4)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="40">
         <f ca="1">MINUTE(C4)</f>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G7" s="40">
         <f ca="1">SECOND(C4)</f>
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6305,7 +6307,9 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="A1:G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7004,7 +7008,7 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -7704,7 +7708,9 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8167,7 +8173,9 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9479,7 +9487,9 @@
   </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15277,7 +15287,9 @@
   </sheetPr>
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18152,7 +18164,9 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18459,7 +18473,9 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18693,7 +18709,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
